--- a/variant_10/Задание 18/18.xlsx
+++ b/variant_10/Задание 18/18.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\YandexDisk\BeeGeek\ИНформатика\2020-2021\Варианты\6 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F690D57-5EFD-4ED9-BB6F-C4E1FBF0553C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -153,7 +147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -330,23 +324,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J10"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1">
         <v>51</v>
       </c>
@@ -377,8 +371,48 @@
       <c r="J1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <f t="shared" ref="M1:U1" si="0">A1+MIN(M2,N1)</f>
+        <v>420</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="V1">
+        <f t="shared" ref="V1:V8" si="1">J1+V2</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>57</v>
       </c>
@@ -409,8 +443,48 @@
       <c r="J2">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f t="shared" ref="M2:U2" si="2">A2+MIN(M3,N2)</f>
+        <v>414</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>52</v>
       </c>
@@ -441,8 +515,48 @@
       <c r="J3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:U3" si="3">A3+MIN(M4,N3)</f>
+        <v>360</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="3"/>
+        <v>261</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>10</v>
       </c>
@@ -473,8 +587,48 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" ref="M4:U4" si="4">A4+MIN(M5,N4)</f>
+        <v>308</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>359</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>332</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>99</v>
       </c>
@@ -505,8 +659,48 @@
       <c r="J5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" ref="M5:U5" si="5">A5+MIN(M6,N5)</f>
+        <v>382</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>214</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>35</v>
       </c>
@@ -537,8 +731,48 @@
       <c r="J6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" ref="M6:U6" si="6">A6+MIN(M7,N6)</f>
+        <v>283</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>311</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>317</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>2</v>
       </c>
@@ -569,8 +803,48 @@
       <c r="J7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" ref="M7:U7" si="7">A7+MIN(M8,N7)</f>
+        <v>248</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>11</v>
       </c>
@@ -601,8 +875,48 @@
       <c r="J8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" ref="M8:U8" si="8">A8+MIN(M9,N8)</f>
+        <v>246</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>246</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="8"/>
+        <v>182</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>22</v>
       </c>
@@ -633,8 +947,48 @@
       <c r="J9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" ref="M9:T9" si="9">A9+MIN(M10,N9)</f>
+        <v>235</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>244</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>226</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="9"/>
+        <v>134</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="9"/>
+        <v>141</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="U9">
+        <f>I9+MIN(U10,V9)</f>
+        <v>137</v>
+      </c>
+      <c r="V9">
+        <f>J9+V10</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>40</v>
       </c>
@@ -663,6 +1017,470 @@
         <v>40</v>
       </c>
       <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:T10" si="10">A10+N10</f>
+        <v>213</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>131</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="U10">
+        <f>I10+V10</f>
+        <v>73</v>
+      </c>
+      <c r="V10">
+        <f>J10</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <f t="shared" ref="A13:I13" si="11">A1+MAX(B13,A14)</f>
+        <v>1165</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="11"/>
+        <v>1069</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="11"/>
+        <v>1029</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="11"/>
+        <v>993</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>945</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>503</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="11"/>
+        <v>394</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J20" si="12">J1+J14</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <f t="shared" ref="A14:I14" si="13">A2+MAX(B14,A15)</f>
+        <v>1114</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="13"/>
+        <v>1057</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="13"/>
+        <v>1014</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="13"/>
+        <v>917</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="13"/>
+        <v>866</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="13"/>
+        <v>711</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="13"/>
+        <v>701</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="13"/>
+        <v>464</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="13"/>
+        <v>376</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="12"/>
+        <v>282</v>
+      </c>
+      <c r="M14">
+        <f>A13+M1</f>
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <f t="shared" ref="A15:I15" si="14">A3+MAX(B15,A16)</f>
+        <v>889</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="14"/>
+        <v>837</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="14"/>
+        <v>821</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="14"/>
+        <v>790</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="14"/>
+        <v>774</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="14"/>
+        <v>696</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="14"/>
+        <v>608</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="14"/>
+        <v>432</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="14"/>
+        <v>357</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <f t="shared" ref="A16:I16" si="15">A4+MAX(B16,A17)</f>
+        <v>832</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="15"/>
+        <v>776</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="15"/>
+        <v>775</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="15"/>
+        <v>711</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="15"/>
+        <v>686</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="15"/>
+        <v>568</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="15"/>
+        <v>518</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="15"/>
+        <v>360</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="15"/>
+        <v>320</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="12"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <f t="shared" ref="A17:I17" si="16">A5+MAX(B17,A18)</f>
+        <v>822</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="16"/>
+        <v>690</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="16"/>
+        <v>672</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="16"/>
+        <v>634</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="16"/>
+        <v>590</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="16"/>
+        <v>513</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="16"/>
+        <v>437</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="16"/>
+        <v>358</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="16"/>
+        <v>229</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <f t="shared" ref="A18:I18" si="17">A6+MAX(B18,A19)</f>
+        <v>723</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="17"/>
+        <v>688</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="17"/>
+        <v>669</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="17"/>
+        <v>627</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="17"/>
+        <v>550</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="17"/>
+        <v>423</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="17"/>
+        <v>404</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="17"/>
+        <v>324</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="12"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <f t="shared" ref="A19:I19" si="18">A7+MAX(B19,A20)</f>
+        <v>578</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="18"/>
+        <v>576</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="18"/>
+        <v>519</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="18"/>
+        <v>492</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="18"/>
+        <v>466</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="18"/>
+        <v>415</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="18"/>
+        <v>382</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="18"/>
+        <v>215</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="18"/>
+        <v>214</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="12"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <f t="shared" ref="A20:I20" si="19">A8+MAX(B20,A21)</f>
+        <v>506</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="19"/>
+        <v>483</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="19"/>
+        <v>434</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="19"/>
+        <v>388</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="19"/>
+        <v>351</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="19"/>
+        <v>282</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="19"/>
+        <v>194</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <f t="shared" ref="A21:H21" si="20">A9+MAX(B21,A22)</f>
+        <v>395</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="20"/>
+        <v>373</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="20"/>
+        <v>302</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>227</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="20"/>
+        <v>216</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="20"/>
+        <v>205</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="20"/>
+        <v>202</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="20"/>
+        <v>163</v>
+      </c>
+      <c r="I21">
+        <f>I9+MAX(J21,I22)</f>
+        <v>147</v>
+      </c>
+      <c r="J21">
+        <f>J9+J22</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <f t="shared" ref="A22:H22" si="21">A10+B22</f>
+        <v>213</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="21"/>
+        <v>173</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="21"/>
+        <v>171</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="21"/>
+        <v>140</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="21"/>
+        <v>136</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="21"/>
+        <v>131</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="21"/>
+        <v>130</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <f>I10+J22</f>
+        <v>73</v>
+      </c>
+      <c r="J22">
+        <f>J10</f>
         <v>33</v>
       </c>
     </row>
